--- a/3.xlsx
+++ b/3.xlsx
@@ -480,7 +480,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>7865</v>
+        <v>7864</v>
       </c>
     </row>
     <row r="3">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>7866</v>
+        <v>7865</v>
       </c>
     </row>
     <row r="4">
@@ -526,7 +526,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>7867</v>
+        <v>7866</v>
       </c>
     </row>
     <row r="5">
@@ -549,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>7868</v>
+        <v>7867</v>
       </c>
     </row>
     <row r="6">
@@ -572,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>7869</v>
+        <v>7868</v>
       </c>
     </row>
     <row r="7">
@@ -595,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>7870</v>
+        <v>7869</v>
       </c>
     </row>
     <row r="8">
@@ -618,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>7871</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="9">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>7872</v>
+        <v>7871</v>
       </c>
     </row>
     <row r="10">
@@ -664,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>7873</v>
+        <v>7872</v>
       </c>
     </row>
     <row r="11">
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>7874</v>
+        <v>7873</v>
       </c>
     </row>
     <row r="12">
@@ -710,7 +710,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>7875</v>
+        <v>7874</v>
       </c>
     </row>
     <row r="13">
@@ -733,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>7876</v>
+        <v>7875</v>
       </c>
     </row>
     <row r="14">
@@ -756,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>7877</v>
+        <v>7876</v>
       </c>
     </row>
     <row r="15">
@@ -779,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>7878</v>
+        <v>7877</v>
       </c>
     </row>
     <row r="16">
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>7879</v>
+        <v>7878</v>
       </c>
     </row>
     <row r="17">
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>7880</v>
+        <v>7879</v>
       </c>
     </row>
     <row r="18">
@@ -848,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>7881</v>
+        <v>7880</v>
       </c>
     </row>
     <row r="19">
@@ -871,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>7882</v>
+        <v>7881</v>
       </c>
     </row>
     <row r="20">
@@ -894,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>7883</v>
+        <v>7882</v>
       </c>
     </row>
     <row r="21">
@@ -917,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>7884</v>
+        <v>7883</v>
       </c>
     </row>
     <row r="22">
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>7885</v>
+        <v>7884</v>
       </c>
     </row>
     <row r="23">
@@ -963,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>7886</v>
+        <v>7885</v>
       </c>
     </row>
     <row r="24">
@@ -986,7 +986,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>7887</v>
+        <v>7886</v>
       </c>
     </row>
     <row r="25">
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>7888</v>
+        <v>7887</v>
       </c>
     </row>
     <row r="26">
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>7889</v>
+        <v>7888</v>
       </c>
     </row>
     <row r="27">
@@ -1055,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>7890</v>
+        <v>7889</v>
       </c>
     </row>
     <row r="28">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>7891</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="29">
@@ -1101,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>7892</v>
+        <v>7891</v>
       </c>
     </row>
     <row r="30">
@@ -1124,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>7893</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="31">
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>7894</v>
+        <v>7893</v>
       </c>
     </row>
     <row r="32">
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>7895</v>
+        <v>7894</v>
       </c>
     </row>
     <row r="33">
@@ -1193,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>7896</v>
+        <v>7895</v>
       </c>
     </row>
     <row r="34">
@@ -1216,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>7897</v>
+        <v>7896</v>
       </c>
     </row>
     <row r="35">
@@ -1239,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>7898</v>
+        <v>7897</v>
       </c>
     </row>
     <row r="36">
@@ -1262,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>7899</v>
+        <v>7898</v>
       </c>
     </row>
     <row r="37">
@@ -1285,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>7900</v>
+        <v>7899</v>
       </c>
     </row>
     <row r="38">
@@ -1308,7 +1308,7 @@
         <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>7901</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="39">
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>7902</v>
+        <v>7901</v>
       </c>
     </row>
     <row r="40">
@@ -1354,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>7903</v>
+        <v>7902</v>
       </c>
     </row>
     <row r="41">
@@ -1377,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>7904</v>
+        <v>7903</v>
       </c>
     </row>
     <row r="42">
@@ -1400,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>7905</v>
+        <v>7904</v>
       </c>
     </row>
     <row r="43">
@@ -1423,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>7906</v>
+        <v>7905</v>
       </c>
     </row>
     <row r="44">
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>7907</v>
+        <v>7906</v>
       </c>
     </row>
     <row r="45">
@@ -1469,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>7908</v>
+        <v>7907</v>
       </c>
     </row>
     <row r="46">
@@ -1492,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>7909</v>
+        <v>7908</v>
       </c>
     </row>
     <row r="47">
@@ -1515,7 +1515,7 @@
         <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>7910</v>
+        <v>7909</v>
       </c>
     </row>
     <row r="48">
@@ -1538,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>7911</v>
+        <v>7910</v>
       </c>
     </row>
     <row r="49">
@@ -1561,7 +1561,7 @@
         <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>7912</v>
+        <v>7911</v>
       </c>
     </row>
     <row r="50">
@@ -1584,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>7913</v>
+        <v>7912</v>
       </c>
     </row>
     <row r="51">
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>7914</v>
+        <v>7913</v>
       </c>
     </row>
     <row r="52">
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>7915</v>
+        <v>7914</v>
       </c>
     </row>
     <row r="53">
@@ -1653,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>7916</v>
+        <v>7915</v>
       </c>
     </row>
     <row r="54">
@@ -1676,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>7917</v>
+        <v>7916</v>
       </c>
     </row>
     <row r="55">
@@ -1699,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>7918</v>
+        <v>7917</v>
       </c>
     </row>
     <row r="56">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>7919</v>
+        <v>7918</v>
       </c>
     </row>
     <row r="57">
@@ -1745,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>7920</v>
+        <v>7919</v>
       </c>
     </row>
     <row r="58">
@@ -1768,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>7921</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="59">
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>7922</v>
+        <v>7921</v>
       </c>
     </row>
     <row r="60">
@@ -1814,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>7923</v>
+        <v>7922</v>
       </c>
     </row>
     <row r="61">
@@ -1837,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>7924</v>
+        <v>7923</v>
       </c>
     </row>
     <row r="62">
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>7925</v>
+        <v>7924</v>
       </c>
     </row>
     <row r="63">
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>7926</v>
+        <v>7925</v>
       </c>
     </row>
     <row r="64">
@@ -1906,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>7927</v>
+        <v>7926</v>
       </c>
     </row>
     <row r="65">
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>7928</v>
+        <v>7927</v>
       </c>
     </row>
     <row r="66">
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>7929</v>
+        <v>7928</v>
       </c>
     </row>
     <row r="67">
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>7930</v>
+        <v>7929</v>
       </c>
     </row>
     <row r="68">
@@ -1998,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>7931</v>
+        <v>7930</v>
       </c>
     </row>
     <row r="69">
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>7932</v>
+        <v>7931</v>
       </c>
     </row>
     <row r="70">
@@ -2044,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>7933</v>
+        <v>7932</v>
       </c>
     </row>
     <row r="71">
@@ -2067,7 +2067,7 @@
         <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>7934</v>
+        <v>7933</v>
       </c>
     </row>
     <row r="72">
@@ -2090,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>7935</v>
+        <v>7934</v>
       </c>
     </row>
     <row r="73">
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>7936</v>
+        <v>7935</v>
       </c>
     </row>
     <row r="74">
@@ -2136,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>7937</v>
+        <v>7936</v>
       </c>
     </row>
     <row r="75">
@@ -2159,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>7938</v>
+        <v>7937</v>
       </c>
     </row>
     <row r="76">
@@ -2182,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>7939</v>
+        <v>7938</v>
       </c>
     </row>
     <row r="77">
@@ -2205,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>7940</v>
+        <v>7939</v>
       </c>
     </row>
     <row r="78">
@@ -2228,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>7941</v>
+        <v>7940</v>
       </c>
     </row>
     <row r="79">
@@ -2251,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>7942</v>
+        <v>7941</v>
       </c>
     </row>
     <row r="80">
@@ -2274,7 +2274,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>7943</v>
+        <v>7942</v>
       </c>
     </row>
     <row r="81">
@@ -2297,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>7944</v>
+        <v>7943</v>
       </c>
     </row>
     <row r="82">
@@ -2320,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>7945</v>
+        <v>7944</v>
       </c>
     </row>
     <row r="83">
@@ -2343,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>7946</v>
+        <v>7945</v>
       </c>
     </row>
     <row r="84">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>7947</v>
+        <v>7946</v>
       </c>
     </row>
     <row r="85">
@@ -2389,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>7948</v>
+        <v>7947</v>
       </c>
     </row>
     <row r="86">
@@ -2412,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>7949</v>
+        <v>7948</v>
       </c>
     </row>
     <row r="87">
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>7950</v>
+        <v>7949</v>
       </c>
     </row>
     <row r="88">
@@ -2458,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>7951</v>
+        <v>7950</v>
       </c>
     </row>
     <row r="89">
@@ -2481,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>7952</v>
+        <v>7951</v>
       </c>
     </row>
     <row r="90">
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>7953</v>
+        <v>7952</v>
       </c>
     </row>
     <row r="91">
@@ -2527,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="E91" t="n">
-        <v>7954</v>
+        <v>7953</v>
       </c>
     </row>
     <row r="92">
@@ -2550,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>7955</v>
+        <v>7954</v>
       </c>
     </row>
     <row r="93">
@@ -2573,7 +2573,7 @@
         <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>7956</v>
+        <v>7955</v>
       </c>
     </row>
     <row r="94">
@@ -2596,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>7957</v>
+        <v>7956</v>
       </c>
     </row>
     <row r="95">
@@ -2619,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>7958</v>
+        <v>7957</v>
       </c>
     </row>
     <row r="96">
@@ -2642,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>7959</v>
+        <v>7958</v>
       </c>
     </row>
     <row r="97">
@@ -2665,7 +2665,7 @@
         <v>2</v>
       </c>
       <c r="E97" t="n">
-        <v>7960</v>
+        <v>7959</v>
       </c>
     </row>
     <row r="98">
@@ -2688,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>7961</v>
+        <v>7960</v>
       </c>
     </row>
     <row r="99">
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>7962</v>
+        <v>7961</v>
       </c>
     </row>
     <row r="100">
@@ -2734,7 +2734,7 @@
         <v>2</v>
       </c>
       <c r="E100" t="n">
-        <v>7963</v>
+        <v>7962</v>
       </c>
     </row>
   </sheetData>
